--- a/Code/Results/Cases/Case_5_197/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_197/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.6057683952643</v>
+        <v>12.58410635944474</v>
       </c>
       <c r="C2">
-        <v>6.83743523936312</v>
+        <v>7.246377296395987</v>
       </c>
       <c r="D2">
-        <v>5.040549064281873</v>
+        <v>7.804520551221182</v>
       </c>
       <c r="E2">
-        <v>7.67379640590518</v>
+        <v>13.01364591543346</v>
       </c>
       <c r="F2">
-        <v>25.31776970725653</v>
+        <v>38.81469517463432</v>
       </c>
       <c r="I2">
-        <v>18.53114411067755</v>
+        <v>29.36583346004903</v>
       </c>
       <c r="J2">
-        <v>6.16634439423263</v>
+        <v>10.3624905419177</v>
       </c>
       <c r="K2">
-        <v>10.70781271808225</v>
+        <v>10.06824227607598</v>
       </c>
       <c r="L2">
-        <v>6.581503148959928</v>
+        <v>11.13782472131573</v>
       </c>
       <c r="M2">
-        <v>9.645703944168279</v>
+        <v>14.98491546710326</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.17204675448237</v>
+        <v>30.07246463931393</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.76180654561648</v>
+        <v>12.38499528303869</v>
       </c>
       <c r="C3">
-        <v>6.684049443238144</v>
+        <v>7.194066479136922</v>
       </c>
       <c r="D3">
-        <v>4.896720015664304</v>
+        <v>7.793294854944984</v>
       </c>
       <c r="E3">
-        <v>7.687931778928409</v>
+        <v>13.03679928334496</v>
       </c>
       <c r="F3">
-        <v>25.32329585915539</v>
+        <v>38.92015916069355</v>
       </c>
       <c r="I3">
-        <v>18.72668779125881</v>
+        <v>29.46717665757958</v>
       </c>
       <c r="J3">
-        <v>6.213138691222828</v>
+        <v>10.37960624037702</v>
       </c>
       <c r="K3">
-        <v>10.09792326186702</v>
+        <v>9.922934195093026</v>
       </c>
       <c r="L3">
-        <v>6.515582863907095</v>
+        <v>11.14571950887441</v>
       </c>
       <c r="M3">
-        <v>9.345766820662661</v>
+        <v>14.95777706981462</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.28943166982643</v>
+        <v>30.16798427002515</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.22616082068441</v>
+        <v>12.26296533776107</v>
       </c>
       <c r="C4">
-        <v>6.587875197210656</v>
+        <v>7.161339742216141</v>
       </c>
       <c r="D4">
-        <v>4.80783154341454</v>
+        <v>7.78732804598067</v>
       </c>
       <c r="E4">
-        <v>7.699103950613069</v>
+        <v>13.05225367842457</v>
       </c>
       <c r="F4">
-        <v>25.34385204276038</v>
+        <v>38.99187148733174</v>
       </c>
       <c r="I4">
-        <v>18.85672934131958</v>
+        <v>29.53377498106239</v>
       </c>
       <c r="J4">
-        <v>6.242823461309239</v>
+        <v>10.39067825499215</v>
       </c>
       <c r="K4">
-        <v>9.703821125467286</v>
+        <v>9.83396397963582</v>
       </c>
       <c r="L4">
-        <v>6.476908622003442</v>
+        <v>11.15170351253015</v>
       </c>
       <c r="M4">
-        <v>9.159515955335653</v>
+        <v>14.94280531527293</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.37353050593319</v>
+        <v>30.2315512850086</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.01307541412087</v>
+        <v>12.21335399516979</v>
       </c>
       <c r="C5">
-        <v>6.548208246174466</v>
+        <v>7.147855362867006</v>
       </c>
       <c r="D5">
-        <v>4.771514983318766</v>
+        <v>7.78513124376901</v>
       </c>
       <c r="E5">
-        <v>7.704275194043397</v>
+        <v>13.05886336288563</v>
       </c>
       <c r="F5">
-        <v>25.35641702449992</v>
+        <v>39.02284296610618</v>
       </c>
       <c r="I5">
-        <v>18.91216186782364</v>
+        <v>29.56201461733681</v>
       </c>
       <c r="J5">
-        <v>6.255163348772892</v>
+        <v>10.3953321401477</v>
       </c>
       <c r="K5">
-        <v>9.538335458654629</v>
+        <v>9.797811637268573</v>
       </c>
       <c r="L5">
-        <v>6.461609346343016</v>
+        <v>11.15442854263811</v>
       </c>
       <c r="M5">
-        <v>9.083199426752783</v>
+        <v>14.93713375477335</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.41072509985206</v>
+        <v>30.25869163816906</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.97731672484278</v>
+        <v>12.20512489676317</v>
       </c>
       <c r="C6">
-        <v>6.541593688916391</v>
+        <v>7.14560749685018</v>
       </c>
       <c r="D6">
-        <v>4.765480534817967</v>
+        <v>7.784780696690818</v>
       </c>
       <c r="E6">
-        <v>7.705170985864345</v>
+        <v>13.05997974971458</v>
       </c>
       <c r="F6">
-        <v>25.35875262744851</v>
+        <v>39.02809129929351</v>
       </c>
       <c r="I6">
-        <v>18.92151180127812</v>
+        <v>29.5667702597006</v>
       </c>
       <c r="J6">
-        <v>6.257227160648061</v>
+        <v>10.39611349945204</v>
       </c>
       <c r="K6">
-        <v>9.510563356509527</v>
+        <v>9.791816034705899</v>
       </c>
       <c r="L6">
-        <v>6.459096959232245</v>
+        <v>11.15489835550075</v>
       </c>
       <c r="M6">
-        <v>9.070505175736429</v>
+        <v>14.93621805980376</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.41707496059313</v>
+        <v>30.26327293277636</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.22331234988242</v>
+        <v>12.26229570876998</v>
       </c>
       <c r="C7">
-        <v>6.58734212249123</v>
+        <v>7.161158479869568</v>
       </c>
       <c r="D7">
-        <v>4.807342075497118</v>
+        <v>7.787297466309898</v>
       </c>
       <c r="E7">
-        <v>7.699171198601699</v>
+        <v>13.0523415553601</v>
       </c>
       <c r="F7">
-        <v>25.34400471033821</v>
+        <v>38.99228210321926</v>
       </c>
       <c r="I7">
-        <v>18.85746713427094</v>
+        <v>29.53415137487462</v>
       </c>
       <c r="J7">
-        <v>6.242988892481685</v>
+        <v>10.39074044363255</v>
       </c>
       <c r="K7">
-        <v>9.701609033580985</v>
+        <v>9.833475942193987</v>
       </c>
       <c r="L7">
-        <v>6.476700415029862</v>
+        <v>11.15173910230885</v>
       </c>
       <c r="M7">
-        <v>9.158488268171114</v>
+        <v>14.94272708194982</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.37402041693894</v>
+        <v>30.2319123040502</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.32119272554312</v>
+        <v>12.51544212678321</v>
       </c>
       <c r="C8">
-        <v>6.784977081673481</v>
+        <v>7.22846954097021</v>
       </c>
       <c r="D8">
-        <v>4.99110638086742</v>
+        <v>7.800458962107403</v>
       </c>
       <c r="E8">
-        <v>7.678147798089877</v>
+        <v>13.02137255627061</v>
       </c>
       <c r="F8">
-        <v>25.31603660639992</v>
+        <v>38.84961449975892</v>
       </c>
       <c r="I8">
-        <v>18.59645377061819</v>
+        <v>29.3998693023023</v>
       </c>
       <c r="J8">
-        <v>6.182283438296778</v>
+        <v>10.36827544588713</v>
       </c>
       <c r="K8">
-        <v>10.50162166962309</v>
+        <v>10.01811279151428</v>
       </c>
       <c r="L8">
-        <v>6.558404977214696</v>
+        <v>11.14031137705507</v>
       </c>
       <c r="M8">
-        <v>9.542781019399875</v>
+        <v>14.97520973029116</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.20996430538192</v>
+        <v>30.10437900006792</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.25671273005844</v>
+        <v>13.01103611571344</v>
       </c>
       <c r="C9">
-        <v>7.155656607054907</v>
+        <v>7.355435849690571</v>
       </c>
       <c r="D9">
-        <v>5.344798003274339</v>
+        <v>7.83352618276894</v>
       </c>
       <c r="E9">
-        <v>7.657081555191798</v>
+        <v>12.97044188646523</v>
       </c>
       <c r="F9">
-        <v>25.40299514668748</v>
+        <v>38.62509793578244</v>
       </c>
       <c r="I9">
-        <v>18.16712073437192</v>
+        <v>29.17121445272219</v>
       </c>
       <c r="J9">
-        <v>6.070635993114514</v>
+        <v>10.3286696768517</v>
       </c>
       <c r="K9">
-        <v>11.91325675402482</v>
+        <v>10.38037951472757</v>
       </c>
       <c r="L9">
-        <v>6.73254222601752</v>
+        <v>11.12688851664167</v>
       </c>
       <c r="M9">
-        <v>10.2755064697772</v>
+        <v>15.05213288979572</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.98830971042466</v>
+        <v>29.89331760710143</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.53228054958095</v>
+        <v>13.37122926788395</v>
       </c>
       <c r="C10">
-        <v>7.416452015308119</v>
+        <v>7.445377466505978</v>
       </c>
       <c r="D10">
-        <v>5.598037967781578</v>
+        <v>7.862120667689434</v>
       </c>
       <c r="E10">
-        <v>7.654422503789669</v>
+        <v>12.93896369370754</v>
       </c>
       <c r="F10">
-        <v>25.56087134647169</v>
+        <v>38.49389752951046</v>
       </c>
       <c r="I10">
-        <v>17.90700049225128</v>
+        <v>29.02432052228539</v>
       </c>
       <c r="J10">
-        <v>5.992877284824727</v>
+        <v>10.3022571440571</v>
       </c>
       <c r="K10">
-        <v>12.85346383577743</v>
+        <v>10.64430490157427</v>
       </c>
       <c r="L10">
-        <v>6.868431581312596</v>
+        <v>11.12246242670251</v>
       </c>
       <c r="M10">
-        <v>10.79597096622358</v>
+        <v>15.1164368620734</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.89310877126708</v>
+        <v>29.76206111843607</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.08135350429349</v>
+        <v>13.53354713994566</v>
       </c>
       <c r="C11">
-        <v>7.53236946253195</v>
+        <v>7.485511803575077</v>
       </c>
       <c r="D11">
-        <v>5.71134245909147</v>
+        <v>7.876033870330066</v>
       </c>
       <c r="E11">
-        <v>7.656111275716221</v>
+        <v>12.92592621830805</v>
       </c>
       <c r="F11">
-        <v>25.65466211310476</v>
+        <v>38.44155171748027</v>
       </c>
       <c r="I11">
-        <v>17.80188746188023</v>
+        <v>28.96206842909629</v>
       </c>
       <c r="J11">
-        <v>5.958374762143652</v>
+        <v>10.29081911561174</v>
       </c>
       <c r="K11">
-        <v>13.26010350211313</v>
+        <v>10.76340594084596</v>
       </c>
       <c r="L11">
-        <v>6.931858129179798</v>
+        <v>11.12161933640091</v>
       </c>
       <c r="M11">
-        <v>11.02795388373099</v>
+        <v>15.14731861439834</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.86599694832809</v>
+        <v>29.70752257859951</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.28483631312201</v>
+        <v>13.5947368301246</v>
       </c>
       <c r="C12">
-        <v>7.575857938599278</v>
+        <v>7.500592591093572</v>
       </c>
       <c r="D12">
-        <v>5.753941816098354</v>
+        <v>7.881429985092188</v>
       </c>
       <c r="E12">
-        <v>7.657177079632501</v>
+        <v>12.92117305059115</v>
       </c>
       <c r="F12">
-        <v>25.69346108067466</v>
+        <v>38.42278562840909</v>
       </c>
       <c r="I12">
-        <v>17.76409486609382</v>
+        <v>28.9391519838523</v>
       </c>
       <c r="J12">
-        <v>5.945430050657977</v>
+        <v>10.28657041556406</v>
       </c>
       <c r="K12">
-        <v>13.4110635020732</v>
+        <v>10.8083297985658</v>
       </c>
       <c r="L12">
-        <v>6.956097255395586</v>
+        <v>11.12146746386483</v>
       </c>
       <c r="M12">
-        <v>11.11504840669988</v>
+        <v>15.15924131839292</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.85818879594841</v>
+        <v>29.68761411169611</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.24120934351312</v>
+        <v>13.5815716973872</v>
       </c>
       <c r="C13">
-        <v>7.566510243234922</v>
+        <v>7.497349965159038</v>
       </c>
       <c r="D13">
-        <v>5.744781418363727</v>
+        <v>7.880262209591652</v>
       </c>
       <c r="E13">
-        <v>7.656928426884521</v>
+        <v>12.92218856232796</v>
       </c>
       <c r="F13">
-        <v>25.68495712042186</v>
+        <v>38.42678025633914</v>
       </c>
       <c r="I13">
-        <v>17.77214286793473</v>
+        <v>28.94405822970468</v>
       </c>
       <c r="J13">
-        <v>5.948212634102004</v>
+        <v>10.28748177974767</v>
       </c>
       <c r="K13">
-        <v>13.37868600923161</v>
+        <v>10.79866312633434</v>
       </c>
       <c r="L13">
-        <v>6.950867270213259</v>
+        <v>11.12149274265138</v>
       </c>
       <c r="M13">
-        <v>11.09632545152794</v>
+        <v>15.15666348597997</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.8597589741955</v>
+        <v>29.69186865386902</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.09818285960793</v>
+        <v>13.53858710596842</v>
       </c>
       <c r="C14">
-        <v>7.535955523763469</v>
+        <v>7.486754886399248</v>
       </c>
       <c r="D14">
-        <v>5.71485345940224</v>
+        <v>7.87647527284399</v>
       </c>
       <c r="E14">
-        <v>7.656190361345907</v>
+        <v>12.92553149091051</v>
       </c>
       <c r="F14">
-        <v>25.65778765056681</v>
+        <v>38.43998664871506</v>
       </c>
       <c r="I14">
-        <v>17.79873726667795</v>
+        <v>28.96016991166631</v>
       </c>
       <c r="J14">
-        <v>5.957307401566506</v>
+        <v>10.29046791847654</v>
       </c>
       <c r="K14">
-        <v>13.27258366809817</v>
+        <v>10.76710562213044</v>
       </c>
       <c r="L14">
-        <v>6.93384793047263</v>
+        <v>11.12160349241713</v>
       </c>
       <c r="M14">
-        <v>11.03513462406559</v>
+        <v>15.14829495826426</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.86530453883451</v>
+        <v>29.70586978119072</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.00999827019372</v>
+        <v>13.51222017285056</v>
       </c>
       <c r="C15">
-        <v>7.517186449613416</v>
+        <v>7.480249683673381</v>
       </c>
       <c r="D15">
-        <v>5.696480849854259</v>
+        <v>7.874172184888872</v>
       </c>
       <c r="E15">
-        <v>7.655794076666465</v>
+        <v>12.92760305708897</v>
       </c>
       <c r="F15">
-        <v>25.64157662637946</v>
+        <v>38.44821351043175</v>
       </c>
       <c r="I15">
-        <v>17.81529247820233</v>
+        <v>28.97012434695554</v>
       </c>
       <c r="J15">
-        <v>5.962893783613519</v>
+        <v>10.29230776523476</v>
       </c>
       <c r="K15">
-        <v>13.20719910547517</v>
+        <v>10.74775153795853</v>
       </c>
       <c r="L15">
-        <v>6.923451544190598</v>
+        <v>11.12169310094379</v>
       </c>
       <c r="M15">
-        <v>10.99755370646393</v>
+        <v>15.14319856695765</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.86902543939796</v>
+        <v>29.71454279507868</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.49577362157945</v>
+        <v>13.36058569187149</v>
       </c>
       <c r="C16">
-        <v>7.408820400500833</v>
+        <v>7.442738459637624</v>
       </c>
       <c r="D16">
-        <v>5.590592112033414</v>
+        <v>7.86122939738724</v>
       </c>
       <c r="E16">
-        <v>7.654371272428359</v>
+        <v>12.93984147800468</v>
       </c>
       <c r="F16">
-        <v>25.55519461386885</v>
+        <v>38.49746619423983</v>
       </c>
       <c r="I16">
-        <v>17.91414512834117</v>
+        <v>29.02848080036546</v>
       </c>
       <c r="J16">
-        <v>5.995149238243394</v>
+        <v>10.30301622908567</v>
       </c>
       <c r="K16">
-        <v>12.82646525103429</v>
+        <v>10.63649867866351</v>
       </c>
       <c r="L16">
-        <v>6.864317990476763</v>
+        <v>11.12254099853925</v>
       </c>
       <c r="M16">
-        <v>10.78070840520172</v>
+        <v>15.11445096060717</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.89521747991075</v>
+        <v>29.76572943584431</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.17235737330542</v>
+        <v>13.26712910506123</v>
       </c>
       <c r="C17">
-        <v>7.341632724537097</v>
+        <v>7.419523057965868</v>
       </c>
       <c r="D17">
-        <v>5.525121851531548</v>
+        <v>7.853519424105674</v>
       </c>
       <c r="E17">
-        <v>7.654247509494065</v>
+        <v>12.94767736061887</v>
       </c>
       <c r="F17">
-        <v>25.50791810505</v>
+        <v>38.52956126717091</v>
       </c>
       <c r="I17">
-        <v>17.97824956540088</v>
+        <v>29.06545111709655</v>
       </c>
       <c r="J17">
-        <v>6.015156680259862</v>
+        <v>10.30973309162708</v>
       </c>
       <c r="K17">
-        <v>12.58750256045369</v>
+        <v>10.56797453476496</v>
       </c>
       <c r="L17">
-        <v>6.828446197317313</v>
+        <v>11.12336028020539</v>
       </c>
       <c r="M17">
-        <v>10.64640772460569</v>
+        <v>15.09722849342091</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.91552451023654</v>
+        <v>29.79845552319811</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.98339842100781</v>
+        <v>13.21323398082176</v>
       </c>
       <c r="C18">
-        <v>7.302732958581968</v>
+        <v>7.406096996168545</v>
       </c>
       <c r="D18">
-        <v>5.487288447679971</v>
+        <v>7.849170244135252</v>
       </c>
       <c r="E18">
-        <v>7.654448558441136</v>
+        <v>12.95230506323733</v>
       </c>
       <c r="F18">
-        <v>25.48278688262036</v>
+        <v>38.54871213701271</v>
       </c>
       <c r="I18">
-        <v>18.01635767386525</v>
+        <v>29.08714569049139</v>
       </c>
       <c r="J18">
-        <v>6.026746630303373</v>
+        <v>10.31365080029094</v>
       </c>
       <c r="K18">
-        <v>12.44807413859318</v>
+        <v>10.52847315778884</v>
       </c>
       <c r="L18">
-        <v>6.807965847894574</v>
+        <v>11.12394172621634</v>
       </c>
       <c r="M18">
-        <v>10.5687150450466</v>
+        <v>15.08747633252382</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.92872098236993</v>
+        <v>29.81776536157011</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.91891410264027</v>
+        <v>13.19496347420895</v>
       </c>
       <c r="C19">
-        <v>7.289518858895761</v>
+        <v>7.401538746899264</v>
       </c>
       <c r="D19">
-        <v>5.474449468757458</v>
+        <v>7.847712433613379</v>
       </c>
       <c r="E19">
-        <v>7.654563098547579</v>
+        <v>12.95389267183196</v>
       </c>
       <c r="F19">
-        <v>25.47462805846715</v>
+        <v>38.55531487752615</v>
       </c>
       <c r="I19">
-        <v>18.02946962143694</v>
+        <v>29.09456499797229</v>
       </c>
       <c r="J19">
-        <v>6.030685039829934</v>
+        <v>10.31498661437899</v>
       </c>
       <c r="K19">
-        <v>12.40052541422239</v>
+        <v>10.51508475272719</v>
       </c>
       <c r="L19">
-        <v>6.801058011669689</v>
+        <v>11.12415755070311</v>
       </c>
       <c r="M19">
-        <v>10.5423350817071</v>
+        <v>15.08420099993937</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.93344563921654</v>
+        <v>29.82438690785374</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.20708937838834</v>
+        <v>13.27709276041945</v>
       </c>
       <c r="C20">
-        <v>7.348811501147437</v>
+        <v>7.422001986891489</v>
       </c>
       <c r="D20">
-        <v>5.532109812950064</v>
+        <v>7.854331345395933</v>
       </c>
       <c r="E20">
-        <v>7.654232440517668</v>
+        <v>12.94683072827719</v>
       </c>
       <c r="F20">
-        <v>25.51273656638716</v>
+        <v>38.52607320651589</v>
       </c>
       <c r="I20">
-        <v>17.97129674343667</v>
+        <v>29.06147103851814</v>
       </c>
       <c r="J20">
-        <v>6.013018378635899</v>
+        <v>10.30901244807087</v>
       </c>
       <c r="K20">
-        <v>12.61314581535467</v>
+        <v>10.57527845270853</v>
       </c>
       <c r="L20">
-        <v>6.832249140513519</v>
+        <v>11.12326166569457</v>
       </c>
       <c r="M20">
-        <v>10.66075096958919</v>
+        <v>15.09904598410349</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.91320492342642</v>
+        <v>29.7949214038997</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.14031331338438</v>
+        <v>13.5512206604633</v>
       </c>
       <c r="C21">
-        <v>7.544941344444533</v>
+        <v>7.489870138270736</v>
       </c>
       <c r="D21">
-        <v>5.723652599033864</v>
+        <v>7.877584150175957</v>
       </c>
       <c r="E21">
-        <v>7.656395502887232</v>
+        <v>12.92454460656146</v>
       </c>
       <c r="F21">
-        <v>25.66567793527387</v>
+        <v>38.43607894126293</v>
       </c>
       <c r="I21">
-        <v>17.7908703341627</v>
+        <v>28.95541968878573</v>
       </c>
       <c r="J21">
-        <v>5.954632810551756</v>
+        <v>10.28958857738163</v>
       </c>
       <c r="K21">
-        <v>13.30383055357838</v>
+        <v>10.77637993736919</v>
       </c>
       <c r="L21">
-        <v>6.938841012735049</v>
+        <v>11.12156642713083</v>
       </c>
       <c r="M21">
-        <v>11.05312874946844</v>
+        <v>15.15074684538825</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.8636078970671</v>
+        <v>29.70173711188956</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.72437607471322</v>
+        <v>13.72874294267789</v>
       </c>
       <c r="C22">
-        <v>7.67074588357822</v>
+        <v>7.533540431564459</v>
       </c>
       <c r="D22">
-        <v>5.847036771768353</v>
+        <v>7.893522957543499</v>
       </c>
       <c r="E22">
-        <v>7.660298515941183</v>
+        <v>12.9110506581749</v>
       </c>
       <c r="F22">
-        <v>25.78482116475522</v>
+        <v>38.3834187595388</v>
       </c>
       <c r="I22">
-        <v>17.68473263459048</v>
+        <v>28.88993884420178</v>
       </c>
       <c r="J22">
-        <v>5.917175437298401</v>
+        <v>10.27737543802378</v>
       </c>
       <c r="K22">
-        <v>13.73760313335169</v>
+        <v>10.90676190826765</v>
       </c>
       <c r="L22">
-        <v>7.009787565289298</v>
+        <v>11.12143370158036</v>
       </c>
       <c r="M22">
-        <v>11.30516065620218</v>
+        <v>15.18586508164671</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.84558624026155</v>
+        <v>29.64517318261362</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.41500092801445</v>
+        <v>13.63416344596824</v>
       </c>
       <c r="C23">
-        <v>7.603823808376088</v>
+        <v>7.510297116177074</v>
       </c>
       <c r="D23">
-        <v>5.781359259005246</v>
+        <v>7.884949170079168</v>
       </c>
       <c r="E23">
-        <v>7.657984453013753</v>
+        <v>12.91815478120796</v>
       </c>
       <c r="F23">
-        <v>25.71943681997207</v>
+        <v>38.41096092143824</v>
       </c>
       <c r="I23">
-        <v>17.74026359019318</v>
+        <v>28.92453682900491</v>
       </c>
       <c r="J23">
-        <v>5.937104546168202</v>
+        <v>10.28384988354909</v>
       </c>
       <c r="K23">
-        <v>13.50770096369291</v>
+        <v>10.83728315430318</v>
       </c>
       <c r="L23">
-        <v>6.9718081612133</v>
+        <v>11.12141561899271</v>
       </c>
       <c r="M23">
-        <v>11.17106929795668</v>
+        <v>15.167002233939</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.85384398660594</v>
+        <v>29.67496536745254</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.19139645720009</v>
+        <v>13.27258870364895</v>
       </c>
       <c r="C24">
-        <v>7.34556682433587</v>
+        <v>7.420881509507038</v>
       </c>
       <c r="D24">
-        <v>5.5289511562358</v>
+        <v>7.853964015849338</v>
       </c>
       <c r="E24">
-        <v>7.654238406072783</v>
+        <v>12.94721310837437</v>
       </c>
       <c r="F24">
-        <v>25.51055176820771</v>
+        <v>38.52764798152172</v>
       </c>
       <c r="I24">
-        <v>17.97443621781089</v>
+        <v>29.06326906192988</v>
       </c>
       <c r="J24">
-        <v>6.013984832214508</v>
+        <v>10.30933807626439</v>
       </c>
       <c r="K24">
-        <v>12.60155887156398</v>
+        <v>10.57197667837718</v>
       </c>
       <c r="L24">
-        <v>6.830529384226885</v>
+        <v>11.12330590527223</v>
       </c>
       <c r="M24">
-        <v>10.65426788303738</v>
+        <v>15.09822383118113</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.91424887866831</v>
+        <v>29.79651763683093</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.75901783925292</v>
+        <v>12.87741170337103</v>
       </c>
       <c r="C25">
-        <v>7.057322919251824</v>
+        <v>7.321655085584034</v>
       </c>
       <c r="D25">
-        <v>5.250106679660147</v>
+        <v>7.823816014186607</v>
       </c>
       <c r="E25">
-        <v>7.660567955928673</v>
+        <v>12.98317432365396</v>
       </c>
       <c r="F25">
-        <v>25.36350143325198</v>
+        <v>38.67991272774468</v>
       </c>
       <c r="I25">
-        <v>18.27393979109199</v>
+        <v>29.22936381494213</v>
       </c>
       <c r="J25">
-        <v>6.100072036897489</v>
+        <v>10.33891057543492</v>
       </c>
       <c r="K25">
-        <v>11.54835179885472</v>
+        <v>10.2826017576847</v>
       </c>
       <c r="L25">
-        <v>6.68399708877214</v>
+        <v>11.12956192883052</v>
       </c>
       <c r="M25">
-        <v>10.08008435843042</v>
+        <v>15.02993462842789</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.03688958858158</v>
+        <v>29.94623505826386</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_197/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_197/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.58410635944474</v>
+        <v>12.60576839526438</v>
       </c>
       <c r="C2">
-        <v>7.246377296395987</v>
+        <v>6.837435239362883</v>
       </c>
       <c r="D2">
-        <v>7.804520551221182</v>
+        <v>5.040549064281828</v>
       </c>
       <c r="E2">
-        <v>13.01364591543346</v>
+        <v>7.67379640590518</v>
       </c>
       <c r="F2">
-        <v>38.81469517463432</v>
+        <v>25.31776970725644</v>
       </c>
       <c r="I2">
-        <v>29.36583346004903</v>
+        <v>18.53114411067745</v>
       </c>
       <c r="J2">
-        <v>10.3624905419177</v>
+        <v>6.166344394232631</v>
       </c>
       <c r="K2">
-        <v>10.06824227607598</v>
+        <v>10.70781271808227</v>
       </c>
       <c r="L2">
-        <v>11.13782472131573</v>
+        <v>6.581503148959975</v>
       </c>
       <c r="M2">
-        <v>14.98491546710326</v>
+        <v>9.645703944168259</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.07246463931393</v>
+        <v>19.17204675448226</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.38499528303869</v>
+        <v>11.7618065456165</v>
       </c>
       <c r="C3">
-        <v>7.194066479136922</v>
+        <v>6.684049443237994</v>
       </c>
       <c r="D3">
-        <v>7.793294854944984</v>
+        <v>4.896720015664229</v>
       </c>
       <c r="E3">
-        <v>13.03679928334496</v>
+        <v>7.687931778928473</v>
       </c>
       <c r="F3">
-        <v>38.92015916069355</v>
+        <v>25.3232958591554</v>
       </c>
       <c r="I3">
-        <v>29.46717665757958</v>
+        <v>18.72668779125882</v>
       </c>
       <c r="J3">
-        <v>10.37960624037702</v>
+        <v>6.213138691222862</v>
       </c>
       <c r="K3">
-        <v>9.922934195093026</v>
+        <v>10.09792326186697</v>
       </c>
       <c r="L3">
-        <v>11.14571950887441</v>
+        <v>6.515582863907114</v>
       </c>
       <c r="M3">
-        <v>14.95777706981462</v>
+        <v>9.345766820662698</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>30.16798427002515</v>
+        <v>19.28943166982647</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.26296533776107</v>
+        <v>11.22616082068438</v>
       </c>
       <c r="C4">
-        <v>7.161339742216141</v>
+        <v>6.587875197210898</v>
       </c>
       <c r="D4">
-        <v>7.78732804598067</v>
+        <v>4.8078315434146</v>
       </c>
       <c r="E4">
-        <v>13.05225367842457</v>
+        <v>7.699103950613195</v>
       </c>
       <c r="F4">
-        <v>38.99187148733174</v>
+        <v>25.34385204276002</v>
       </c>
       <c r="I4">
-        <v>29.53377498106239</v>
+        <v>18.85672934131935</v>
       </c>
       <c r="J4">
-        <v>10.39067825499215</v>
+        <v>6.24282346130927</v>
       </c>
       <c r="K4">
-        <v>9.83396397963582</v>
+        <v>9.703821125467316</v>
       </c>
       <c r="L4">
-        <v>11.15170351253015</v>
+        <v>6.476908622003523</v>
       </c>
       <c r="M4">
-        <v>14.94280531527293</v>
+        <v>9.159515955335658</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>30.2315512850086</v>
+        <v>19.37353050593288</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.21335399516979</v>
+        <v>11.01307541412083</v>
       </c>
       <c r="C5">
-        <v>7.147855362867006</v>
+        <v>6.548208246174683</v>
       </c>
       <c r="D5">
-        <v>7.78513124376901</v>
+        <v>4.771514983318885</v>
       </c>
       <c r="E5">
-        <v>13.05886336288563</v>
+        <v>7.704275194043336</v>
       </c>
       <c r="F5">
-        <v>39.02284296610618</v>
+        <v>25.35641702449999</v>
       </c>
       <c r="I5">
-        <v>29.56201461733681</v>
+        <v>18.91216186782369</v>
       </c>
       <c r="J5">
-        <v>10.3953321401477</v>
+        <v>6.255163348772795</v>
       </c>
       <c r="K5">
-        <v>9.797811637268573</v>
+        <v>9.538335458654691</v>
       </c>
       <c r="L5">
-        <v>11.15442854263811</v>
+        <v>6.461609346342896</v>
       </c>
       <c r="M5">
-        <v>14.93713375477335</v>
+        <v>9.083199426752717</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.25869163816906</v>
+        <v>19.41072509985203</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.20512489676317</v>
+        <v>10.97731672484276</v>
       </c>
       <c r="C6">
-        <v>7.14560749685018</v>
+        <v>6.541593688916149</v>
       </c>
       <c r="D6">
-        <v>7.784780696690818</v>
+        <v>4.765480534818058</v>
       </c>
       <c r="E6">
-        <v>13.05997974971458</v>
+        <v>7.705170985864471</v>
       </c>
       <c r="F6">
-        <v>39.02809129929351</v>
+        <v>25.3587526274485</v>
       </c>
       <c r="I6">
-        <v>29.5667702597006</v>
+        <v>18.92151180127802</v>
       </c>
       <c r="J6">
-        <v>10.39611349945204</v>
+        <v>6.257227160648125</v>
       </c>
       <c r="K6">
-        <v>9.791816034705899</v>
+        <v>9.510563356509582</v>
       </c>
       <c r="L6">
-        <v>11.15489835550075</v>
+        <v>6.459096959232384</v>
       </c>
       <c r="M6">
-        <v>14.93621805980376</v>
+        <v>9.070505175736461</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.26327293277636</v>
+        <v>19.4170749605931</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.26229570876998</v>
+        <v>11.22331234988241</v>
       </c>
       <c r="C7">
-        <v>7.161158479869568</v>
+        <v>6.587342122491213</v>
       </c>
       <c r="D7">
-        <v>7.787297466309898</v>
+        <v>4.807342075497053</v>
       </c>
       <c r="E7">
-        <v>13.0523415553601</v>
+        <v>7.699171198601765</v>
       </c>
       <c r="F7">
-        <v>38.99228210321926</v>
+        <v>25.34400471033799</v>
       </c>
       <c r="I7">
-        <v>29.53415137487462</v>
+        <v>18.85746713427079</v>
       </c>
       <c r="J7">
-        <v>10.39074044363255</v>
+        <v>6.242988892481685</v>
       </c>
       <c r="K7">
-        <v>9.833475942193987</v>
+        <v>9.70160903358102</v>
       </c>
       <c r="L7">
-        <v>11.15173910230885</v>
+        <v>6.476700415029887</v>
       </c>
       <c r="M7">
-        <v>14.94272708194982</v>
+        <v>9.158488268171094</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>30.2319123040502</v>
+        <v>19.37402041693877</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.51544212678321</v>
+        <v>12.32119272554313</v>
       </c>
       <c r="C8">
-        <v>7.22846954097021</v>
+        <v>6.784977081673596</v>
       </c>
       <c r="D8">
-        <v>7.800458962107403</v>
+        <v>4.9911063808675</v>
       </c>
       <c r="E8">
-        <v>13.02137255627061</v>
+        <v>7.678147798089877</v>
       </c>
       <c r="F8">
-        <v>38.84961449975892</v>
+        <v>25.31603660639982</v>
       </c>
       <c r="I8">
-        <v>29.3998693023023</v>
+        <v>18.59645377061805</v>
       </c>
       <c r="J8">
-        <v>10.36827544588713</v>
+        <v>6.182283438296744</v>
       </c>
       <c r="K8">
-        <v>10.01811279151428</v>
+        <v>10.50162166962309</v>
       </c>
       <c r="L8">
-        <v>11.14031137705507</v>
+        <v>6.558404977214702</v>
       </c>
       <c r="M8">
-        <v>14.97520973029116</v>
+        <v>9.542781019399872</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.10437900006792</v>
+        <v>19.20996430538177</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.01103611571344</v>
+        <v>14.25671273005843</v>
       </c>
       <c r="C9">
-        <v>7.355435849690571</v>
+        <v>7.155656607055137</v>
       </c>
       <c r="D9">
-        <v>7.83352618276894</v>
+        <v>5.344798003274216</v>
       </c>
       <c r="E9">
-        <v>12.97044188646523</v>
+        <v>7.657081555191677</v>
       </c>
       <c r="F9">
-        <v>38.62509793578244</v>
+        <v>25.40299514668731</v>
       </c>
       <c r="I9">
-        <v>29.17121445272219</v>
+        <v>18.16712073437188</v>
       </c>
       <c r="J9">
-        <v>10.3286696768517</v>
+        <v>6.070635993114514</v>
       </c>
       <c r="K9">
-        <v>10.38037951472757</v>
+        <v>11.91325675402485</v>
       </c>
       <c r="L9">
-        <v>11.12688851664167</v>
+        <v>6.732542226017389</v>
       </c>
       <c r="M9">
-        <v>15.05213288979572</v>
+        <v>10.27550646977715</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>29.89331760710143</v>
+        <v>18.98830971042457</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.37122926788395</v>
+        <v>15.53228054958095</v>
       </c>
       <c r="C10">
-        <v>7.445377466505978</v>
+        <v>7.416452015308344</v>
       </c>
       <c r="D10">
-        <v>7.862120667689434</v>
+        <v>5.598037967781514</v>
       </c>
       <c r="E10">
-        <v>12.93896369370754</v>
+        <v>7.654422503789609</v>
       </c>
       <c r="F10">
-        <v>38.49389752951046</v>
+        <v>25.56087134647159</v>
       </c>
       <c r="I10">
-        <v>29.02432052228539</v>
+        <v>17.90700049225131</v>
       </c>
       <c r="J10">
-        <v>10.3022571440571</v>
+        <v>5.99287728482469</v>
       </c>
       <c r="K10">
-        <v>10.64430490157427</v>
+        <v>12.85346383577749</v>
       </c>
       <c r="L10">
-        <v>11.12246242670251</v>
+        <v>6.868431581312449</v>
       </c>
       <c r="M10">
-        <v>15.1164368620734</v>
+        <v>10.79597096622356</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>29.76206111843607</v>
+        <v>18.89310877126703</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.53354713994566</v>
+        <v>16.08135350429347</v>
       </c>
       <c r="C11">
-        <v>7.485511803575077</v>
+        <v>7.53236946253195</v>
       </c>
       <c r="D11">
-        <v>7.876033870330066</v>
+        <v>5.711342459091422</v>
       </c>
       <c r="E11">
-        <v>12.92592621830805</v>
+        <v>7.656111275716211</v>
       </c>
       <c r="F11">
-        <v>38.44155171748027</v>
+        <v>25.65466211310459</v>
       </c>
       <c r="I11">
-        <v>28.96206842909629</v>
+        <v>17.80188746188021</v>
       </c>
       <c r="J11">
-        <v>10.29081911561174</v>
+        <v>5.958374762143687</v>
       </c>
       <c r="K11">
-        <v>10.76340594084596</v>
+        <v>13.26010350211314</v>
       </c>
       <c r="L11">
-        <v>11.12161933640091</v>
+        <v>6.931858129179751</v>
       </c>
       <c r="M11">
-        <v>15.14731861439834</v>
+        <v>11.02795388373099</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>29.70752257859951</v>
+        <v>18.86599694832802</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.5947368301246</v>
+        <v>16.28483631312207</v>
       </c>
       <c r="C12">
-        <v>7.500592591093572</v>
+        <v>7.575857938599164</v>
       </c>
       <c r="D12">
-        <v>7.881429985092188</v>
+        <v>5.753941816098333</v>
       </c>
       <c r="E12">
-        <v>12.92117305059115</v>
+        <v>7.657177079632397</v>
       </c>
       <c r="F12">
-        <v>38.42278562840909</v>
+        <v>25.69346108067451</v>
       </c>
       <c r="I12">
-        <v>28.9391519838523</v>
+        <v>17.76409486609365</v>
       </c>
       <c r="J12">
-        <v>10.28657041556406</v>
+        <v>5.94543005065785</v>
       </c>
       <c r="K12">
-        <v>10.8083297985658</v>
+        <v>13.41106350207325</v>
       </c>
       <c r="L12">
-        <v>11.12146746386483</v>
+        <v>6.956097255395546</v>
       </c>
       <c r="M12">
-        <v>15.15924131839292</v>
+        <v>11.11504840669982</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>29.68761411169611</v>
+        <v>18.85818879594826</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.5815716973872</v>
+        <v>16.24120934351312</v>
       </c>
       <c r="C13">
-        <v>7.497349965159038</v>
+        <v>7.566510243235028</v>
       </c>
       <c r="D13">
-        <v>7.880262209591652</v>
+        <v>5.744781418363642</v>
       </c>
       <c r="E13">
-        <v>12.92218856232796</v>
+        <v>7.656928426884583</v>
       </c>
       <c r="F13">
-        <v>38.42678025633914</v>
+        <v>25.68495712042185</v>
       </c>
       <c r="I13">
-        <v>28.94405822970468</v>
+        <v>17.77214286793482</v>
       </c>
       <c r="J13">
-        <v>10.28748177974767</v>
+        <v>5.948212634102005</v>
       </c>
       <c r="K13">
-        <v>10.79866312633434</v>
+        <v>13.37868600923166</v>
       </c>
       <c r="L13">
-        <v>11.12149274265138</v>
+        <v>6.950867270213218</v>
       </c>
       <c r="M13">
-        <v>15.15666348597997</v>
+        <v>11.09632545152795</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>29.69186865386902</v>
+        <v>18.85975897419554</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.53858710596842</v>
+        <v>16.09818285960794</v>
       </c>
       <c r="C14">
-        <v>7.486754886399248</v>
+        <v>7.535955523763574</v>
       </c>
       <c r="D14">
-        <v>7.87647527284399</v>
+        <v>5.714853459402266</v>
       </c>
       <c r="E14">
-        <v>12.92553149091051</v>
+        <v>7.656190361346014</v>
       </c>
       <c r="F14">
-        <v>38.43998664871506</v>
+        <v>25.65778765056678</v>
       </c>
       <c r="I14">
-        <v>28.96016991166631</v>
+        <v>17.79873726667795</v>
       </c>
       <c r="J14">
-        <v>10.29046791847654</v>
+        <v>5.957307401566634</v>
       </c>
       <c r="K14">
-        <v>10.76710562213044</v>
+        <v>13.27258366809819</v>
       </c>
       <c r="L14">
-        <v>11.12160349241713</v>
+        <v>6.933847930472694</v>
       </c>
       <c r="M14">
-        <v>15.14829495826426</v>
+        <v>11.03513462406559</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>29.70586978119072</v>
+        <v>18.8653045388345</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.51222017285056</v>
+        <v>16.00999827019375</v>
       </c>
       <c r="C15">
-        <v>7.480249683673381</v>
+        <v>7.517186449613191</v>
       </c>
       <c r="D15">
-        <v>7.874172184888872</v>
+        <v>5.696480849854258</v>
       </c>
       <c r="E15">
-        <v>12.92760305708897</v>
+        <v>7.655794076666468</v>
       </c>
       <c r="F15">
-        <v>38.44821351043175</v>
+        <v>25.64157662637943</v>
       </c>
       <c r="I15">
-        <v>28.97012434695554</v>
+        <v>17.81529247820228</v>
       </c>
       <c r="J15">
-        <v>10.29230776523476</v>
+        <v>5.962893783613488</v>
       </c>
       <c r="K15">
-        <v>10.74775153795853</v>
+        <v>13.2071991054752</v>
       </c>
       <c r="L15">
-        <v>11.12169310094379</v>
+        <v>6.923451544190589</v>
       </c>
       <c r="M15">
-        <v>15.14319856695765</v>
+        <v>10.99755370646392</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>29.71454279507868</v>
+        <v>18.86902543939792</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.36058569187149</v>
+        <v>15.49577362157945</v>
       </c>
       <c r="C16">
-        <v>7.442738459637624</v>
+        <v>7.408820400500954</v>
       </c>
       <c r="D16">
-        <v>7.86122939738724</v>
+        <v>5.590592112033413</v>
       </c>
       <c r="E16">
-        <v>12.93984147800468</v>
+        <v>7.654371272428417</v>
       </c>
       <c r="F16">
-        <v>38.49746619423983</v>
+        <v>25.55519461386866</v>
       </c>
       <c r="I16">
-        <v>29.02848080036546</v>
+        <v>17.91414512834109</v>
       </c>
       <c r="J16">
-        <v>10.30301622908567</v>
+        <v>5.995149238243461</v>
       </c>
       <c r="K16">
-        <v>10.63649867866351</v>
+        <v>12.82646525103431</v>
       </c>
       <c r="L16">
-        <v>11.12254099853925</v>
+        <v>6.864317990476754</v>
       </c>
       <c r="M16">
-        <v>15.11445096060717</v>
+        <v>10.78070840520172</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>29.76572943584431</v>
+        <v>18.89521747991062</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.26712910506123</v>
+        <v>15.17235737330541</v>
       </c>
       <c r="C17">
-        <v>7.419523057965868</v>
+        <v>7.341632724537087</v>
       </c>
       <c r="D17">
-        <v>7.853519424105674</v>
+        <v>5.525121851531718</v>
       </c>
       <c r="E17">
-        <v>12.94767736061887</v>
+        <v>7.654247509494122</v>
       </c>
       <c r="F17">
-        <v>38.52956126717091</v>
+        <v>25.50791810505019</v>
       </c>
       <c r="I17">
-        <v>29.06545111709655</v>
+        <v>17.97824956540092</v>
       </c>
       <c r="J17">
-        <v>10.30973309162708</v>
+        <v>6.015156680259795</v>
       </c>
       <c r="K17">
-        <v>10.56797453476496</v>
+        <v>12.58750256045366</v>
       </c>
       <c r="L17">
-        <v>11.12336028020539</v>
+        <v>6.82844619731733</v>
       </c>
       <c r="M17">
-        <v>15.09722849342091</v>
+        <v>10.64640772460572</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>29.79845552319811</v>
+        <v>18.91552451023658</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.21323398082176</v>
+        <v>14.98339842100793</v>
       </c>
       <c r="C18">
-        <v>7.406096996168545</v>
+        <v>7.302732958581622</v>
       </c>
       <c r="D18">
-        <v>7.849170244135252</v>
+        <v>5.487288447679895</v>
       </c>
       <c r="E18">
-        <v>12.95230506323733</v>
+        <v>7.654448558441016</v>
       </c>
       <c r="F18">
-        <v>38.54871213701271</v>
+        <v>25.48278688262013</v>
       </c>
       <c r="I18">
-        <v>29.08714569049139</v>
+        <v>18.016357673865</v>
       </c>
       <c r="J18">
-        <v>10.31365080029094</v>
+        <v>6.026746630303306</v>
       </c>
       <c r="K18">
-        <v>10.52847315778884</v>
+        <v>12.44807413859324</v>
       </c>
       <c r="L18">
-        <v>11.12394172621634</v>
+        <v>6.807965847894572</v>
       </c>
       <c r="M18">
-        <v>15.08747633252382</v>
+        <v>10.56871504504652</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>29.81776536157011</v>
+        <v>18.92872098236978</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.19496347420895</v>
+        <v>14.9189141026403</v>
       </c>
       <c r="C19">
-        <v>7.401538746899264</v>
+        <v>7.28951885889586</v>
       </c>
       <c r="D19">
-        <v>7.847712433613379</v>
+        <v>5.474449468757451</v>
       </c>
       <c r="E19">
-        <v>12.95389267183196</v>
+        <v>7.65456309854758</v>
       </c>
       <c r="F19">
-        <v>38.55531487752615</v>
+        <v>25.47462805846701</v>
       </c>
       <c r="I19">
-        <v>29.09456499797229</v>
+        <v>18.0294696214368</v>
       </c>
       <c r="J19">
-        <v>10.31498661437899</v>
+        <v>6.030685039829935</v>
       </c>
       <c r="K19">
-        <v>10.51508475272719</v>
+        <v>12.40052541422245</v>
       </c>
       <c r="L19">
-        <v>11.12415755070311</v>
+        <v>6.801058011669689</v>
       </c>
       <c r="M19">
-        <v>15.08420099993937</v>
+        <v>10.54233508170706</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>29.82438690785374</v>
+        <v>18.93344563921639</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.27709276041945</v>
+        <v>15.20708937838832</v>
       </c>
       <c r="C20">
-        <v>7.422001986891489</v>
+        <v>7.348811501147408</v>
       </c>
       <c r="D20">
-        <v>7.854331345395933</v>
+        <v>5.532109812950056</v>
       </c>
       <c r="E20">
-        <v>12.94683072827719</v>
+        <v>7.654232440517723</v>
       </c>
       <c r="F20">
-        <v>38.52607320651589</v>
+        <v>25.51273656638716</v>
       </c>
       <c r="I20">
-        <v>29.06147103851814</v>
+        <v>17.97129674343666</v>
       </c>
       <c r="J20">
-        <v>10.30901244807087</v>
+        <v>6.013018378635899</v>
       </c>
       <c r="K20">
-        <v>10.57527845270853</v>
+        <v>12.61314581535466</v>
       </c>
       <c r="L20">
-        <v>11.12326166569457</v>
+        <v>6.832249140513484</v>
       </c>
       <c r="M20">
-        <v>15.09904598410349</v>
+        <v>10.66075096958918</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>29.7949214038997</v>
+        <v>18.91320492342642</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.5512206604633</v>
+        <v>16.14031331338439</v>
       </c>
       <c r="C21">
-        <v>7.489870138270736</v>
+        <v>7.544941344444418</v>
       </c>
       <c r="D21">
-        <v>7.877584150175957</v>
+        <v>5.723652599033851</v>
       </c>
       <c r="E21">
-        <v>12.92454460656146</v>
+        <v>7.656395502887184</v>
       </c>
       <c r="F21">
-        <v>38.43607894126293</v>
+        <v>25.66567793527371</v>
       </c>
       <c r="I21">
-        <v>28.95541968878573</v>
+        <v>17.79087033416253</v>
       </c>
       <c r="J21">
-        <v>10.28958857738163</v>
+        <v>5.95463281055169</v>
       </c>
       <c r="K21">
-        <v>10.77637993736919</v>
+        <v>13.30383055357839</v>
       </c>
       <c r="L21">
-        <v>11.12156642713083</v>
+        <v>6.938841012735039</v>
       </c>
       <c r="M21">
-        <v>15.15074684538825</v>
+        <v>11.05312874946842</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>29.70173711188956</v>
+        <v>18.86360789706695</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.72874294267789</v>
+        <v>16.72437607471322</v>
       </c>
       <c r="C22">
-        <v>7.533540431564459</v>
+        <v>7.67074588357802</v>
       </c>
       <c r="D22">
-        <v>7.893522957543499</v>
+        <v>5.847036771768401</v>
       </c>
       <c r="E22">
-        <v>12.9110506581749</v>
+        <v>7.660298515941023</v>
       </c>
       <c r="F22">
-        <v>38.3834187595388</v>
+        <v>25.78482116475503</v>
       </c>
       <c r="I22">
-        <v>28.88993884420178</v>
+        <v>17.68473263459027</v>
       </c>
       <c r="J22">
-        <v>10.27737543802378</v>
+        <v>5.917175437298302</v>
       </c>
       <c r="K22">
-        <v>10.90676190826765</v>
+        <v>13.73760313335168</v>
       </c>
       <c r="L22">
-        <v>11.12143370158036</v>
+        <v>7.00978756528926</v>
       </c>
       <c r="M22">
-        <v>15.18586508164671</v>
+        <v>11.30516065620219</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>29.64517318261362</v>
+        <v>18.84558624026139</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.63416344596824</v>
+        <v>16.41500092801444</v>
       </c>
       <c r="C23">
-        <v>7.510297116177074</v>
+        <v>7.603823808376048</v>
       </c>
       <c r="D23">
-        <v>7.884949170079168</v>
+        <v>5.781359259005287</v>
       </c>
       <c r="E23">
-        <v>12.91815478120796</v>
+        <v>7.657984453013809</v>
       </c>
       <c r="F23">
-        <v>38.41096092143824</v>
+        <v>25.71943681997212</v>
       </c>
       <c r="I23">
-        <v>28.92453682900491</v>
+        <v>17.74026359019321</v>
       </c>
       <c r="J23">
-        <v>10.28384988354909</v>
+        <v>5.937104546168269</v>
       </c>
       <c r="K23">
-        <v>10.83728315430318</v>
+        <v>13.50770096369291</v>
       </c>
       <c r="L23">
-        <v>11.12141561899271</v>
+        <v>6.971808161213317</v>
       </c>
       <c r="M23">
-        <v>15.167002233939</v>
+        <v>11.17106929795669</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>29.67496536745254</v>
+        <v>18.85384398660597</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.27258870364895</v>
+        <v>15.1913964572001</v>
       </c>
       <c r="C24">
-        <v>7.420881509507038</v>
+        <v>7.345566824335742</v>
       </c>
       <c r="D24">
-        <v>7.853964015849338</v>
+        <v>5.528951156235785</v>
       </c>
       <c r="E24">
-        <v>12.94721310837437</v>
+        <v>7.654238406072779</v>
       </c>
       <c r="F24">
-        <v>38.52764798152172</v>
+        <v>25.51055176820768</v>
       </c>
       <c r="I24">
-        <v>29.06326906192988</v>
+        <v>17.97443621781087</v>
       </c>
       <c r="J24">
-        <v>10.30933807626439</v>
+        <v>6.01398483221454</v>
       </c>
       <c r="K24">
-        <v>10.57197667837718</v>
+        <v>12.60155887156398</v>
       </c>
       <c r="L24">
-        <v>11.12330590527223</v>
+        <v>6.830529384226875</v>
       </c>
       <c r="M24">
-        <v>15.09822383118113</v>
+        <v>10.65426788303736</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>29.79651763683093</v>
+        <v>18.91424887866827</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.87741170337103</v>
+        <v>13.75901783925295</v>
       </c>
       <c r="C25">
-        <v>7.321655085584034</v>
+        <v>7.057322919251805</v>
       </c>
       <c r="D25">
-        <v>7.823816014186607</v>
+        <v>5.250106679660051</v>
       </c>
       <c r="E25">
-        <v>12.98317432365396</v>
+        <v>7.660567955928616</v>
       </c>
       <c r="F25">
-        <v>38.67991272774468</v>
+        <v>25.36350143325187</v>
       </c>
       <c r="I25">
-        <v>29.22936381494213</v>
+        <v>18.27393979109193</v>
       </c>
       <c r="J25">
-        <v>10.33891057543492</v>
+        <v>6.100072036897556</v>
       </c>
       <c r="K25">
-        <v>10.2826017576847</v>
+        <v>11.54835179885472</v>
       </c>
       <c r="L25">
-        <v>11.12956192883052</v>
+        <v>6.683997088772086</v>
       </c>
       <c r="M25">
-        <v>15.02993462842789</v>
+        <v>10.08008435843041</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.94623505826386</v>
+        <v>19.03688958858155</v>
       </c>
     </row>
   </sheetData>
